--- a/00文审机数值/H-活动控制表.xlsx
+++ b/00文审机数值/H-活动控制表.xlsx
@@ -170,7 +170,7 @@
           </rPr>
           <t xml:space="preserve">
 格式：
-[{道具键:道具ID,数量键;数量},{道具键:道具ID,数量键;数量},···]
+[{货币键:货币ID,数量键;数量},{货币键:货币ID,数量键;数量},···]
 </t>
         </r>
       </text>
@@ -1312,7 +1312,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
+      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>

--- a/00文审机数值/H-活动控制表.xlsx
+++ b/00文审机数值/H-活动控制表.xlsx
@@ -59,7 +59,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -77,8 +77,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
--1代表开服即生效
-</t>
+简单介绍活动内容</t>
         </r>
       </text>
     </comment>
@@ -985,10 +984,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1312,7 +1311,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1320,7 +1319,7 @@
     <col min="1" max="1" width="9" style="5"/>
     <col min="2" max="2" width="10.125" style="5" customWidth="1"/>
     <col min="3" max="3" width="20.625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="47.5" style="5" customWidth="1"/>
+    <col min="4" max="4" width="39.5" style="5" customWidth="1"/>
     <col min="5" max="5" width="14.375" style="5" customWidth="1"/>
     <col min="6" max="6" width="13" style="5" customWidth="1"/>
     <col min="7" max="7" width="13.25" style="5" customWidth="1"/>
@@ -1430,9 +1429,9 @@
         <v>22</v>
       </c>
       <c r="E4" s="6">
-        <v>-1</v>
-      </c>
-      <c r="F4" s="6">
+        <v>45799</v>
+      </c>
+      <c r="F4" s="7">
         <v>-1</v>
       </c>
       <c r="G4" s="4">
@@ -1459,9 +1458,9 @@
         <v>25</v>
       </c>
       <c r="E5" s="6">
-        <v>-1</v>
-      </c>
-      <c r="F5" s="6">
+        <v>45799</v>
+      </c>
+      <c r="F5" s="7">
         <v>-1</v>
       </c>
       <c r="G5" s="4">
@@ -1488,9 +1487,9 @@
         <v>27</v>
       </c>
       <c r="E6" s="6">
-        <v>-1</v>
-      </c>
-      <c r="F6" s="6">
+        <v>45799</v>
+      </c>
+      <c r="F6" s="7">
         <v>-1</v>
       </c>
       <c r="G6" s="4">
@@ -1511,9 +1510,9 @@
         <v>28</v>
       </c>
       <c r="E7" s="6">
-        <v>-1</v>
-      </c>
-      <c r="F7" s="6">
+        <v>45799</v>
+      </c>
+      <c r="F7" s="7">
         <v>-1</v>
       </c>
       <c r="G7" s="4">
@@ -1533,7 +1532,7 @@
       <c r="C8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="6">
         <v>45808</v>
       </c>
       <c r="F8" s="4">
@@ -1556,7 +1555,7 @@
       <c r="C9" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="6">
         <v>45931</v>
       </c>
       <c r="F9" s="4">

--- a/00文审机数值/H-活动控制表.xlsx
+++ b/00文审机数值/H-活动控制表.xlsx
@@ -272,7 +272,7 @@
     <t>每日12:00-14:00登录游戏领取{0}金币</t>
   </si>
   <si>
-    <t>10001:500*$schloginAdd</t>
+    <t>10001:500*(1+$schloginAdd)</t>
   </si>
   <si>
     <t>晚间登录</t>
@@ -471,12 +471,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1311,7 +1311,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1324,7 +1324,7 @@
     <col min="6" max="6" width="13" style="5" customWidth="1"/>
     <col min="7" max="7" width="13.25" style="5" customWidth="1"/>
     <col min="8" max="8" width="22.125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="27" style="5" customWidth="1"/>
+    <col min="9" max="9" width="28.5" style="5" customWidth="1"/>
     <col min="10" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>

--- a/00文审机数值/H-活动控制表.xlsx
+++ b/00文审机数值/H-活动控制表.xlsx
@@ -169,8 +169,7 @@
           </rPr>
           <t xml:space="preserve">
 格式：
-[{货币键:货币ID,数量键;数量},{货币键:货币ID,数量键;数量},···]
-</t>
+货币ID：数量</t>
         </r>
       </text>
     </comment>
@@ -471,12 +470,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1311,7 +1310,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
+      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
